--- a/Time Series model for predicting Car sales/Consumer Price Index/CPI Historical data.xlsx
+++ b/Time Series model for predicting Car sales/Consumer Price Index/CPI Historical data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishwa\OneDrive\Documents\GitHub\Data-Science-Mini-Project\Time Series model for predicting Car sales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishwa\OneDrive\Documents\GitHub\Data-Science-Mini-Project\Time Series model for predicting Car sales\Consumer Price Index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472692CA-71D1-45DD-B197-ACBE680AA069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1296FE68-16C4-4592-9545-7C2A0DDAAE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,16 +349,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="6" bestFit="1" customWidth="1"/>
@@ -1368,6 +1367,30 @@
         <v>110.1</v>
       </c>
     </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B126">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B127">
+        <v>111.3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B128">
+        <v>111.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
